--- a/tau/pitsheets/br_pitsheets/BR2-1.xlsx
+++ b/tau/pitsheets/br_pitsheets/BR2-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nqpenelope/Documents/uvm/phd/research/data/lab_data/Elemental/pitsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nqpenelope/Documents/uvm/phd/research/data/lab/Exchangeable/VT/Soil_Analyses/tau/pitsheets/br_pitsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5F34BF-151B-4D42-99A6-E4290F7049CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95294846-5901-2D45-9A16-9AFFDE20A493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17220" windowHeight="15540" xr2:uid="{69A08980-350D-014F-BC7B-8833C5EF225E}"/>
+    <workbookView xWindow="11460" yWindow="500" windowWidth="17220" windowHeight="15540" activeTab="6" xr2:uid="{69A08980-350D-014F-BC7B-8833C5EF225E}"/>
   </bookViews>
   <sheets>
     <sheet name="BR2.1_soil" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="46">
   <si>
     <t>Pit</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Bulk</t>
+  </si>
+  <si>
+    <t>20 x 20 cm rock volume</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111BC6BE-CE26-E241-BD79-145B933B20E3}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1953,10 +1956,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D606C84-882D-BF41-94B2-11AD6E76D0E6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/tau/pitsheets/br_pitsheets/BR2-1.xlsx
+++ b/tau/pitsheets/br_pitsheets/BR2-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nqpenelope/Documents/uvm/phd/research/data/lab/Exchangeable/VT/Soil_Analyses/tau/pitsheets/br_pitsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nqpenelope/Documents/uvm/phd/research/data/lab/Soil_Analyses/tau/pitsheets/br_pitsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95294846-5901-2D45-9A16-9AFFDE20A493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{967A4F8F-8640-7C41-9156-DF8EA922BA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="500" windowWidth="17220" windowHeight="15540" activeTab="6" xr2:uid="{69A08980-350D-014F-BC7B-8833C5EF225E}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="23520" windowHeight="15540" activeTab="3" xr2:uid="{69A08980-350D-014F-BC7B-8833C5EF225E}"/>
   </bookViews>
   <sheets>
     <sheet name="BR2.1_soil" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="extra" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="60">
   <si>
     <t>Pit</t>
   </si>
@@ -177,6 +178,48 @@
   </si>
   <si>
     <t>20 x 20 cm rock volume</t>
+  </si>
+  <si>
+    <t>ORF1</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>From column</t>
+  </si>
+  <si>
+    <t>ORF2</t>
+  </si>
+  <si>
+    <t>ORF4</t>
+  </si>
+  <si>
+    <t>ORF3</t>
+  </si>
+  <si>
+    <t>Not from column</t>
+  </si>
+  <si>
+    <t>RF5</t>
+  </si>
+  <si>
+    <t>RF6</t>
+  </si>
+  <si>
+    <t>ORF7</t>
+  </si>
+  <si>
+    <t>ORF8</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ORF9</t>
   </si>
 </sst>
 </file>
@@ -1471,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06CE59C-420E-B646-B605-EC80CA6F5768}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1657,8 +1700,268 @@
         <v>44</v>
       </c>
     </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <f>1546.2+1043.3</f>
+        <v>2589.5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>1083</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>46</v>
+      </c>
+      <c r="F9">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>351.5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>47</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>586.70000000000005</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
       <c r="J10" s="4"/>
+      <c r="N10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11">
+        <v>67</v>
+      </c>
+      <c r="F11">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>97.8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>67</v>
+      </c>
+      <c r="F12">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>159.5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>192.1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>106</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>74.7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1671,7 +1974,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:J25"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1956,7 +2259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D606C84-882D-BF41-94B2-11AD6E76D0E6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
